--- a/Minh/Finalll/Excel 31.05/Book1.xlsx
+++ b/Minh/Finalll/Excel 31.05/Book1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lenovo\Desktop\Apps\Coding\github\CapsoneProject\Minh\Finalll\Excel 31.05\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2B6821C-F4EC-4D47-89DE-B725F88CBC94}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC3EC6DF-32F2-49D6-9D15-96736F61C109}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15620" activeTab="1" xr2:uid="{F5B032A6-A416-439A-BBCE-A26149C4CCCE}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15620" activeTab="4" xr2:uid="{F5B032A6-A416-439A-BBCE-A26149C4CCCE}"/>
   </bookViews>
   <sheets>
     <sheet name="Vehicle mass" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="11">
   <si>
     <t>Khảo sat khôi lượng</t>
   </si>
@@ -53,12 +53,33 @@
   <si>
     <t>Khảo sat vâjn tốc at 550kg</t>
   </si>
+  <si>
+    <t>Steering wheel angle (degrees)</t>
+  </si>
+  <si>
+    <t>Camber angle (-1)</t>
+  </si>
+  <si>
+    <t>Camber angle (-2)</t>
+  </si>
+  <si>
+    <t>Camber angle (1)</t>
+  </si>
+  <si>
+    <t>Camber angle (2)</t>
+  </si>
+  <si>
+    <t>v = 5km/h, 9 kingpin, 5 caster, m = 550kg</t>
+  </si>
+  <si>
+    <t>Camber angle (0)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -73,6 +94,12 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="4">
@@ -107,7 +134,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -116,6 +143,7 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -941,7 +969,1098 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="1800" b="1"/>
+              <a:t>The</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" sz="1800" b="1" baseline="0"/>
+              <a:t> Camber angle effect on the total resistance torque</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US" sz="1800" b="1"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Camber!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Camber angle (-2)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Camber!$A$2:$A$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>250</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>350</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>400</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>450</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Camber!$B$2:$B$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>112.79999999999998</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>117.69999999999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>122.20000000000002</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>126.85</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>131.30000000000001</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>136</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>139.85</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>144.10000000000002</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>147.35999999999996</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>151.10000000000002</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-9F10-45FD-949D-C9552BB090BE}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Camber!$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Camber angle (-1)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Camber!$A$2:$A$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>250</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>350</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>400</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>450</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Camber!$C$2:$C$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>95.6</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>100.89999999999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>106.05000000000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>111.3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>116.4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>121.60000000000001</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>126.3</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>131.15</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>135.33999999999997</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>139.80000000000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-9F10-45FD-949D-C9552BB090BE}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Camber!$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Camber angle (0)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Camber!$A$2:$A$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>250</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>350</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>400</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>450</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Camber!$D$2:$D$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>78.400000000000006</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>84.1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>89.9</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>95.75</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>101.5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>107.2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>112.75</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>118.2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>123.32</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>128.5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-9F10-45FD-949D-C9552BB090BE}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Camber!$E$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Camber angle (1)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent4"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Camber!$A$2:$A$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>250</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>350</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>400</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>450</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Camber!$E$2:$E$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>61.2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>67.3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>73.75</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>80.2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>86.6</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>92.8</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>99.2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>105.25</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>111.3</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>117.2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-9F10-45FD-949D-C9552BB090BE}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Camber!$F$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Camber angle (2)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent5"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Camber!$A$2:$A$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>250</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>350</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>400</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>450</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Camber!$F$2:$F$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>43.9</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>50.62</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>57.63</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>64.66</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>71.680000000000007</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>78.63</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>85.53</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>92.37</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>99.1</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>106</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-9F10-45FD-949D-C9552BB090BE}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="829751072"/>
+        <c:axId val="829750352"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="829751072"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1400" b="1"/>
+                  <a:t>The steering wheel</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1400" b="1" baseline="0"/>
+                  <a:t> angle (degrees)</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US" sz="1400" b="1"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="0.33251224451503958"/>
+              <c:y val="0.84270785769643519"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="829750352"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="829750352"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1400" b="1"/>
+                  <a:t>The total resistance</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1400" b="1" baseline="0"/>
+                  <a:t> torque (N.m)</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US" sz="1400" b="1"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="1.314708299096138E-2"/>
+              <c:y val="0.18016974945709552"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="829751072"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr>
+          <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+          <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+        </a:defRPr>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -1484,6 +2603,509 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
@@ -1505,6 +3127,47 @@
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
               <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B54292A-E96F-FB70-8425-A00A20A5F684}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>31750</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>34924</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>2546350</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F3CB07F9-B869-2703-7B58-BAE364729339}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2144,7 +3807,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{54106939-7448-4E78-B9C2-114FD5B9750A}">
   <dimension ref="A1:D21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+    <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
@@ -2482,12 +4145,269 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E0057485-C901-46AC-A80A-017F49621F0D}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:I11"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="M18" sqref="M18"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="30.26953125" customWidth="1"/>
+    <col min="2" max="2" width="24" customWidth="1"/>
+    <col min="3" max="3" width="20.7265625" customWidth="1"/>
+    <col min="4" max="4" width="17.26953125" customWidth="1"/>
+    <col min="5" max="5" width="18.7265625" customWidth="1"/>
+    <col min="6" max="6" width="21.1796875" customWidth="1"/>
+    <col min="9" max="9" width="38.08984375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A2">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <f>C2+(C2-D2)</f>
+        <v>112.79999999999998</v>
+      </c>
+      <c r="C2">
+        <v>95.6</v>
+      </c>
+      <c r="D2">
+        <v>78.400000000000006</v>
+      </c>
+      <c r="E2">
+        <v>61.2</v>
+      </c>
+      <c r="F2">
+        <v>43.9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A3">
+        <v>50</v>
+      </c>
+      <c r="B3">
+        <f t="shared" ref="B3:B11" si="0">C3+(C3-D3)</f>
+        <v>117.69999999999999</v>
+      </c>
+      <c r="C3">
+        <f>D3+(D3-E3)</f>
+        <v>100.89999999999999</v>
+      </c>
+      <c r="D3">
+        <v>84.1</v>
+      </c>
+      <c r="E3">
+        <v>67.3</v>
+      </c>
+      <c r="F3">
+        <v>50.62</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A4">
+        <v>100</v>
+      </c>
+      <c r="B4">
+        <f t="shared" si="0"/>
+        <v>122.20000000000002</v>
+      </c>
+      <c r="C4">
+        <f>D4+(D4-E4)</f>
+        <v>106.05000000000001</v>
+      </c>
+      <c r="D4">
+        <v>89.9</v>
+      </c>
+      <c r="E4">
+        <v>73.75</v>
+      </c>
+      <c r="F4">
+        <v>57.63</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A5">
+        <v>150</v>
+      </c>
+      <c r="B5">
+        <f t="shared" si="0"/>
+        <v>126.85</v>
+      </c>
+      <c r="C5">
+        <f>D5+(D5-E5)</f>
+        <v>111.3</v>
+      </c>
+      <c r="D5">
+        <v>95.75</v>
+      </c>
+      <c r="E5">
+        <v>80.2</v>
+      </c>
+      <c r="F5">
+        <v>64.66</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A6">
+        <v>200</v>
+      </c>
+      <c r="B6">
+        <f t="shared" si="0"/>
+        <v>131.30000000000001</v>
+      </c>
+      <c r="C6">
+        <f>D6+(D6-E6)</f>
+        <v>116.4</v>
+      </c>
+      <c r="D6">
+        <v>101.5</v>
+      </c>
+      <c r="E6">
+        <v>86.6</v>
+      </c>
+      <c r="F6">
+        <v>71.680000000000007</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A7">
+        <v>250</v>
+      </c>
+      <c r="B7">
+        <f t="shared" si="0"/>
+        <v>136</v>
+      </c>
+      <c r="C7">
+        <f>D7+(D7-E7)</f>
+        <v>121.60000000000001</v>
+      </c>
+      <c r="D7">
+        <v>107.2</v>
+      </c>
+      <c r="E7">
+        <v>92.8</v>
+      </c>
+      <c r="F7">
+        <v>78.63</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A8">
+        <v>300</v>
+      </c>
+      <c r="B8">
+        <f t="shared" si="0"/>
+        <v>139.85</v>
+      </c>
+      <c r="C8">
+        <f>D8+(D8-E8)</f>
+        <v>126.3</v>
+      </c>
+      <c r="D8">
+        <v>112.75</v>
+      </c>
+      <c r="E8">
+        <v>99.2</v>
+      </c>
+      <c r="F8">
+        <v>85.53</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A9">
+        <v>350</v>
+      </c>
+      <c r="B9">
+        <f t="shared" si="0"/>
+        <v>144.10000000000002</v>
+      </c>
+      <c r="C9">
+        <f>D9+(D9-E9)</f>
+        <v>131.15</v>
+      </c>
+      <c r="D9">
+        <v>118.2</v>
+      </c>
+      <c r="E9">
+        <v>105.25</v>
+      </c>
+      <c r="F9">
+        <v>92.37</v>
+      </c>
+      <c r="I9" s="6"/>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A10">
+        <v>400</v>
+      </c>
+      <c r="B10">
+        <f t="shared" si="0"/>
+        <v>147.35999999999996</v>
+      </c>
+      <c r="C10">
+        <f>D10+(D10-E10)</f>
+        <v>135.33999999999997</v>
+      </c>
+      <c r="D10">
+        <v>123.32</v>
+      </c>
+      <c r="E10">
+        <v>111.3</v>
+      </c>
+      <c r="F10">
+        <v>99.1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A11">
+        <v>450</v>
+      </c>
+      <c r="B11">
+        <f t="shared" si="0"/>
+        <v>151.10000000000002</v>
+      </c>
+      <c r="C11">
+        <f>D11+(D11-E11)</f>
+        <v>139.80000000000001</v>
+      </c>
+      <c r="D11">
+        <v>128.5</v>
+      </c>
+      <c r="E11">
+        <v>117.2</v>
+      </c>
+      <c r="F11">
+        <v>106</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>